--- a/resources/data/SqlLoadExcel/function.xlsx
+++ b/resources/data/SqlLoadExcel/function.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Postgraduate\YY\code\11.10ModularizationPy\resources\data\SqlLoadExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D43B3DE-CE07-42B3-ADAC-F7F2CD359551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -116,17 +133,21 @@
   </si>
   <si>
     <t>S62,S63</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,8 +155,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,15 +209,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +299,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +351,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,863 +561,1739 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>A2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">A3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">D3+1</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E72" si="2">A67-D67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="D68">
+        <f t="shared" ref="D68:D110" si="3">D67+1</f>
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <f>A73-D73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E109" si="4">A74-D74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>31</v>
       </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D110">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>